--- a/JupyterNotebooks/AveragedIntensites/GammaFiber2F-HW30.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/GammaFiber2F-HW30.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="GammaFiber2F-HW30.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="GammaFiber2F" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>HKL</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -949,7 +949,7 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9937378308183797</v>
+        <v>0.9937378308183796</v>
       </c>
       <c r="D13">
         <v>0.9960976807022145</v>
@@ -958,7 +958,7 @@
         <v>0.9933726521081805</v>
       </c>
       <c r="F13">
-        <v>0.9937378308183797</v>
+        <v>0.9937378308183796</v>
       </c>
       <c r="G13">
         <v>0.9931397431958763</v>
@@ -1062,6 +1062,47 @@
       </c>
       <c r="M15">
         <v>0.9954584411605886</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1.045273451079792</v>
+      </c>
+      <c r="D16">
+        <v>0.8527933969363093</v>
+      </c>
+      <c r="E16">
+        <v>1.019274105624675</v>
+      </c>
+      <c r="F16">
+        <v>1.045273451079792</v>
+      </c>
+      <c r="G16">
+        <v>0.920361292935602</v>
+      </c>
+      <c r="H16">
+        <v>1.065469375697556</v>
+      </c>
+      <c r="I16">
+        <v>1.02580319011694</v>
+      </c>
+      <c r="J16">
+        <v>0.8527933969363093</v>
+      </c>
+      <c r="K16">
+        <v>0.9360337512804924</v>
+      </c>
+      <c r="L16">
+        <v>0.9906536011801422</v>
+      </c>
+      <c r="M16">
+        <v>0.9881624687318125</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AveragedIntensites/GammaFiber2F-HW30.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/GammaFiber2F-HW30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -498,37 +501,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1069,7 +1072,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>1.045273451079792</v>

--- a/JupyterNotebooks/AveragedIntensites/GammaFiber2F-HW30.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/GammaFiber2F-HW30.xlsx
@@ -952,7 +952,7 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9937378308183796</v>
+        <v>0.9937378308183797</v>
       </c>
       <c r="D13">
         <v>0.9960976807022145</v>
@@ -961,7 +961,7 @@
         <v>0.9933726521081805</v>
       </c>
       <c r="F13">
-        <v>0.9937378308183796</v>
+        <v>0.9937378308183797</v>
       </c>
       <c r="G13">
         <v>0.9931397431958763</v>

--- a/JupyterNotebooks/AveragedIntensites/GammaFiber2F-HW30.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/GammaFiber2F-HW30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -449,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,37 +510,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -829,37 +838,37 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.055627999999998</v>
+        <v>1.045273451079792</v>
       </c>
       <c r="D10">
-        <v>0.7055639999999994</v>
+        <v>0.8527933969363093</v>
       </c>
       <c r="E10">
-        <v>1.080023999999999</v>
+        <v>1.019274105624675</v>
       </c>
       <c r="F10">
-        <v>1.055627999999998</v>
+        <v>1.045273451079792</v>
       </c>
       <c r="G10">
-        <v>0.8028560000000003</v>
+        <v>0.920361292935602</v>
       </c>
       <c r="H10">
-        <v>1.224035999999998</v>
+        <v>1.065469375697556</v>
       </c>
       <c r="I10">
-        <v>1.073352000000001</v>
+        <v>1.02580319011694</v>
       </c>
       <c r="J10">
-        <v>0.7055639999999994</v>
+        <v>0.8527933969363093</v>
       </c>
       <c r="K10">
-        <v>0.892793999999999</v>
+        <v>0.9360337512804924</v>
       </c>
       <c r="L10">
-        <v>0.9742109999999988</v>
+        <v>0.9906536011801422</v>
       </c>
       <c r="M10">
-        <v>0.9902433333333326</v>
+        <v>0.9881624687318125</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -870,37 +879,37 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.1</v>
+        <v>1.004854987927426</v>
       </c>
       <c r="D11">
-        <v>0.5</v>
+        <v>0.9434705161733614</v>
       </c>
       <c r="E11">
-        <v>1.14</v>
+        <v>1.008726020025434</v>
       </c>
       <c r="F11">
-        <v>1.1</v>
+        <v>1.004854987927426</v>
       </c>
       <c r="G11">
-        <v>0.66</v>
+        <v>0.9641373337193397</v>
       </c>
       <c r="H11">
-        <v>1.39</v>
+        <v>1.033240208862283</v>
       </c>
       <c r="I11">
-        <v>1.13</v>
+        <v>1.008413879685662</v>
       </c>
       <c r="J11">
-        <v>0.5</v>
+        <v>0.9434705161733614</v>
       </c>
       <c r="K11">
-        <v>0.82</v>
+        <v>0.9760982680993975</v>
       </c>
       <c r="L11">
-        <v>0.9600000000000001</v>
+        <v>0.9904766280134117</v>
       </c>
       <c r="M11">
-        <v>0.9866666666666667</v>
+        <v>0.993807157732251</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -911,37 +920,37 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.05562511360001</v>
+        <v>1.004632827689991</v>
       </c>
       <c r="D12">
-        <v>0.7056244736000032</v>
+        <v>0.9438456484956003</v>
       </c>
       <c r="E12">
-        <v>1.080000153599997</v>
+        <v>1.008713064532918</v>
       </c>
       <c r="F12">
-        <v>1.05562511360001</v>
+        <v>1.004632827689991</v>
       </c>
       <c r="G12">
-        <v>0.8029163007999992</v>
+        <v>0.9644175866334675</v>
       </c>
       <c r="H12">
-        <v>1.223958758400002</v>
+        <v>1.033125190062284</v>
       </c>
       <c r="I12">
-        <v>1.073333478399991</v>
+        <v>1.008349371256998</v>
       </c>
       <c r="J12">
-        <v>0.7056244736000032</v>
+        <v>0.9438456484956003</v>
       </c>
       <c r="K12">
-        <v>0.8928123136000001</v>
+        <v>0.9762793565142591</v>
       </c>
       <c r="L12">
-        <v>0.9742187136000051</v>
+        <v>0.9904560921021253</v>
       </c>
       <c r="M12">
-        <v>0.9902430464000004</v>
+        <v>0.9938472814452098</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -952,37 +961,37 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9937378308183797</v>
+        <v>1.004786411471297</v>
       </c>
       <c r="D13">
-        <v>0.9960976807022145</v>
+        <v>0.9434399772312331</v>
       </c>
       <c r="E13">
-        <v>0.9933726521081805</v>
+        <v>1.008765871892324</v>
       </c>
       <c r="F13">
-        <v>0.9937378308183797</v>
+        <v>1.004786411471297</v>
       </c>
       <c r="G13">
-        <v>0.9931397431958763</v>
+        <v>0.9642525903886964</v>
       </c>
       <c r="H13">
-        <v>0.9943553639304488</v>
+        <v>1.033275957260047</v>
       </c>
       <c r="I13">
-        <v>0.9948838210213059</v>
+        <v>1.008419894708838</v>
       </c>
       <c r="J13">
-        <v>0.9960976807022145</v>
+        <v>0.9434399772312331</v>
       </c>
       <c r="K13">
-        <v>0.9947351664051975</v>
+        <v>0.9761029245617785</v>
       </c>
       <c r="L13">
-        <v>0.9942364986117886</v>
+        <v>0.9904446680165379</v>
       </c>
       <c r="M13">
-        <v>0.9942645152960675</v>
+        <v>0.9938234504920725</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -993,37 +1002,37 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9895485387022636</v>
+        <v>1.055627999999998</v>
       </c>
       <c r="D14">
-        <v>1.014957106629773</v>
+        <v>0.7055639999999994</v>
       </c>
       <c r="E14">
-        <v>0.9892628970588851</v>
+        <v>1.080023999999999</v>
       </c>
       <c r="F14">
-        <v>0.9895485387022636</v>
+        <v>1.055627999999998</v>
       </c>
       <c r="G14">
-        <v>1.002922244746067</v>
+        <v>0.8028560000000003</v>
       </c>
       <c r="H14">
-        <v>0.9827887225805435</v>
+        <v>1.224035999999998</v>
       </c>
       <c r="I14">
-        <v>0.9897041957005024</v>
+        <v>1.073352000000001</v>
       </c>
       <c r="J14">
-        <v>1.014957106629773</v>
+        <v>0.7055639999999994</v>
       </c>
       <c r="K14">
-        <v>1.002110001844329</v>
+        <v>0.892793999999999</v>
       </c>
       <c r="L14">
-        <v>0.9958292702732963</v>
+        <v>0.9742109999999988</v>
       </c>
       <c r="M14">
-        <v>0.9948639509030057</v>
+        <v>0.9902433333333326</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1034,37 +1043,37 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9829640018726238</v>
+        <v>1.1</v>
       </c>
       <c r="D15">
-        <v>1.052190682863402</v>
+        <v>0.5</v>
       </c>
       <c r="E15">
-        <v>0.9799104052442996</v>
+        <v>1.14</v>
       </c>
       <c r="F15">
-        <v>0.9829640018726238</v>
+        <v>1.1</v>
       </c>
       <c r="G15">
-        <v>1.027655813377856</v>
+        <v>0.66</v>
       </c>
       <c r="H15">
-        <v>0.9507899477795725</v>
+        <v>1.39</v>
       </c>
       <c r="I15">
-        <v>0.9792397958257774</v>
+        <v>1.13</v>
       </c>
       <c r="J15">
-        <v>1.052190682863402</v>
+        <v>0.5</v>
       </c>
       <c r="K15">
-        <v>1.016050544053851</v>
+        <v>0.82</v>
       </c>
       <c r="L15">
-        <v>0.9995072729632373</v>
+        <v>0.9600000000000001</v>
       </c>
       <c r="M15">
-        <v>0.9954584411605886</v>
+        <v>0.9866666666666667</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1075,37 +1084,160 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.045273451079792</v>
+        <v>1.05562511360001</v>
       </c>
       <c r="D16">
-        <v>0.8527933969363093</v>
+        <v>0.7056244736000032</v>
       </c>
       <c r="E16">
-        <v>1.019274105624675</v>
+        <v>1.080000153599997</v>
       </c>
       <c r="F16">
-        <v>1.045273451079792</v>
+        <v>1.05562511360001</v>
       </c>
       <c r="G16">
-        <v>0.920361292935602</v>
+        <v>0.8029163007999992</v>
       </c>
       <c r="H16">
-        <v>1.065469375697556</v>
+        <v>1.223958758400002</v>
       </c>
       <c r="I16">
-        <v>1.02580319011694</v>
+        <v>1.073333478399991</v>
       </c>
       <c r="J16">
-        <v>0.8527933969363093</v>
+        <v>0.7056244736000032</v>
       </c>
       <c r="K16">
-        <v>0.9360337512804924</v>
+        <v>0.8928123136000001</v>
       </c>
       <c r="L16">
-        <v>0.9906536011801422</v>
+        <v>0.9742187136000051</v>
       </c>
       <c r="M16">
-        <v>0.9881624687318125</v>
+        <v>0.9902430464000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9937378308183796</v>
+      </c>
+      <c r="D17">
+        <v>0.9960976807022145</v>
+      </c>
+      <c r="E17">
+        <v>0.9933726521081805</v>
+      </c>
+      <c r="F17">
+        <v>0.9937378308183796</v>
+      </c>
+      <c r="G17">
+        <v>0.9931397431958763</v>
+      </c>
+      <c r="H17">
+        <v>0.9943553639304488</v>
+      </c>
+      <c r="I17">
+        <v>0.9948838210213059</v>
+      </c>
+      <c r="J17">
+        <v>0.9960976807022145</v>
+      </c>
+      <c r="K17">
+        <v>0.9947351664051975</v>
+      </c>
+      <c r="L17">
+        <v>0.9942364986117886</v>
+      </c>
+      <c r="M17">
+        <v>0.9942645152960675</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0.9895485387022636</v>
+      </c>
+      <c r="D18">
+        <v>1.014957106629773</v>
+      </c>
+      <c r="E18">
+        <v>0.9892628970588851</v>
+      </c>
+      <c r="F18">
+        <v>0.9895485387022636</v>
+      </c>
+      <c r="G18">
+        <v>1.002922244746067</v>
+      </c>
+      <c r="H18">
+        <v>0.9827887225805435</v>
+      </c>
+      <c r="I18">
+        <v>0.9897041957005024</v>
+      </c>
+      <c r="J18">
+        <v>1.014957106629773</v>
+      </c>
+      <c r="K18">
+        <v>1.002110001844329</v>
+      </c>
+      <c r="L18">
+        <v>0.9958292702732963</v>
+      </c>
+      <c r="M18">
+        <v>0.9948639509030057</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.9829640018726238</v>
+      </c>
+      <c r="D19">
+        <v>1.052190682863402</v>
+      </c>
+      <c r="E19">
+        <v>0.9799104052442996</v>
+      </c>
+      <c r="F19">
+        <v>0.9829640018726238</v>
+      </c>
+      <c r="G19">
+        <v>1.027655813377856</v>
+      </c>
+      <c r="H19">
+        <v>0.9507899477795725</v>
+      </c>
+      <c r="I19">
+        <v>0.9792397958257774</v>
+      </c>
+      <c r="J19">
+        <v>1.052190682863402</v>
+      </c>
+      <c r="K19">
+        <v>1.016050544053851</v>
+      </c>
+      <c r="L19">
+        <v>0.9995072729632373</v>
+      </c>
+      <c r="M19">
+        <v>0.9954584411605886</v>
       </c>
     </row>
   </sheetData>
